--- a/08-manager-test case.xlsx
+++ b/08-manager-test case.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Classic Computer\Desktop\SQA\Automation notes\drive-download-20231002T131654Z-001\manual testing project\Ecommerce\ManualTestingProject_Guru99Banking-main\ManualTestingProject_Guru99Banking-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Classic Computer\Desktop\report\Manual-Testing-Project_Guru99-Banking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D8656F-79ED-4816-A1E7-BDF4A638E8C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21309EE9-9946-4693-BFC9-2224D91234A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="11" xr2:uid="{E8FE01C1-A824-405B-A5EF-71A934F474A6}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1463" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1304" uniqueCount="399">
   <si>
     <t>Project Name</t>
   </si>
@@ -129,9 +129,6 @@
   </si>
   <si>
     <t>As expected</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>Entered name will be 
@@ -985,9 +982,6 @@
   <si>
     <t xml:space="preserve">Could not connect:Access denied for user'root'@'localhost'(using password:NO)
 </t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
   <si>
     <t>Entered name will not be 
@@ -1340,7 +1334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1399,15 +1393,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1423,12 +1410,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,7 +1501,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1569,9 +1550,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1580,9 +1558,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1910,8 +1885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF76E75D-1657-40B8-855E-C3C7B42534D9}">
   <dimension ref="C3:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1968,10 +1943,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -2026,16 +2001,13 @@
         <v>26</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="63" x14ac:dyDescent="0.25">
@@ -2049,19 +2021,16 @@
         <v>17</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>32</v>
-      </c>
       <c r="H12" s="12" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -2075,19 +2044,16 @@
         <v>19</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
@@ -2101,19 +2067,16 @@
         <v>22</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -2130,596 +2093,527 @@
         <v>26</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>298</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="8" t="s">
+      <c r="D17" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="8" t="s">
+      <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="8" t="s">
+      <c r="I17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="D18" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>52</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>53</v>
       </c>
       <c r="F18" s="14">
         <v>44750</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="H18" s="8" t="s">
-        <v>55</v>
-      </c>
       <c r="I18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F19" s="14">
         <v>44750</v>
       </c>
       <c r="G19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="I19" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="F20" s="14">
         <v>44750</v>
       </c>
       <c r="G20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="H20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+      <c r="D21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F21" s="15" t="s">
+      <c r="D22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F23" s="15" t="s">
+      <c r="G23" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="H23" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="D24" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
+      <c r="E25" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H25" s="12" t="s">
+      <c r="D26" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
+      <c r="F26" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="D27" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="7" t="s">
+      <c r="G27" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C31" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F27" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>300</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J28" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C29" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="F31" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="H30" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I30" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C31" s="7" t="s">
+      <c r="H31" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E31" s="7" t="s">
+      <c r="D32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F31" s="16" t="s">
+      <c r="F32" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="G31" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I31" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F32" s="17" t="s">
+      <c r="G32" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="H32" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="I32" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C33" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="I32" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J32" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
-        <v>111</v>
-      </c>
       <c r="D33" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="F33" s="17">
         <v>402301</v>
       </c>
       <c r="G33" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="I33" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I33" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C34" s="7" t="s">
+      <c r="F34" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="D35" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C36" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="H34" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I34" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J34" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C35" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I35" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J35" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C36" s="7" t="s">
+      <c r="I36" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C37" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="G36" s="8" t="s">
+      <c r="D37" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="H36" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I36" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J36" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="7" t="s">
+      <c r="F37" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C38" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I37" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J37" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C38" s="7" t="s">
-        <v>116</v>
-      </c>
       <c r="D38" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>23</v>
@@ -2728,154 +2622,136 @@
         <v>402301</v>
       </c>
       <c r="G38" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H38" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="I38" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="J38" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C39" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>138</v>
-      </c>
       <c r="E39" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F39" s="17">
         <v>78965412378</v>
       </c>
       <c r="G39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C40" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="F40" s="17" t="s">
         <v>149</v>
       </c>
-      <c r="H39" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J39" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C40" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="8" t="s">
+      <c r="G40" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C41" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="D41" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E41" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F40" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="G40" s="8" t="s">
+      <c r="F41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C42" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="H40" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J40" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C41" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E41" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I41" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J41" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C42" s="7" t="s">
+      <c r="G42" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I42" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G42" s="8" t="s">
+      <c r="D43" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="H42" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I42" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J42" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C43" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="E43" s="7" t="s">
+      <c r="F43" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="G43" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G43" s="8" t="s">
+      <c r="H43" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C44" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H43" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J43" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C44" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="D44" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E44" s="7" t="s">
         <v>23</v>
@@ -2884,172 +2760,151 @@
         <v>78965412378</v>
       </c>
       <c r="G44" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C45" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="H44" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C45" s="7" t="s">
+      <c r="D45" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G45" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C46" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="D45" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J45" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C46" s="7" t="s">
+      <c r="D46" s="8" t="s">
         <v>160</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>161</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F46" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H46" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="J46" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="C47" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C48" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="48" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C48" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="D48" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E48" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E48" s="21" t="s">
+      <c r="F48" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F48" s="17" t="s">
+      <c r="H48" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C49" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F49" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C50" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E50" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F50" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G48" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J48" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C49" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E49" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J49" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="50" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C50" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E50" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G50" s="8" t="s">
+      <c r="H50" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H50" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="I50" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J50" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3070,8 +2925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1950DC85-DB0E-44F6-B783-870F5BAEAA5F}">
   <dimension ref="C3:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3128,10 +2983,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3177,182 +3032,168 @@
         <v>18</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="H17" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>367</v>
-      </c>
       <c r="I17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J17" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3368,8 +3209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E99510F6-DAC2-4B77-8985-437ED2A21A94}">
   <dimension ref="C3:J20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,10 +3267,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3475,25 +3316,22 @@
         <v>18</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>366</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>368</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>399</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>369</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>370</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="51.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -3501,25 +3339,22 @@
         <v>20</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G12" s="23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -3527,25 +3362,22 @@
         <v>21</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -3553,181 +3385,160 @@
         <v>25</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>378</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="H17" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>388</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>387</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="I19" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>360</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>374</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>392</v>
-      </c>
       <c r="E20" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>367</v>
-      </c>
       <c r="I20" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -3746,7 +3557,7 @@
   <dimension ref="C3:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3803,10 +3614,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -3852,211 +3663,195 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F13" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>372</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>374</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>375</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C15" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J15" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F16" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="F16" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="G16" s="8" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C17" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="I17" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J17" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J17" s="11"/>
     </row>
     <row r="18" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>365</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>367</v>
-      </c>
       <c r="I18" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J18" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J18" s="11"/>
     </row>
     <row r="19" spans="3:10" ht="78.75" x14ac:dyDescent="0.25">
       <c r="C19" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>366</v>
-      </c>
-      <c r="H19" s="30" t="s">
-        <v>395</v>
+        <v>364</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>393</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J19" s="11"/>
     </row>
     <row r="20" spans="3:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="H20" s="29"/>
+      <c r="H20" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -4072,8 +3867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81827A86-B661-4452-BB62-5D36DFCCC44A}">
   <dimension ref="C3:J45"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4130,10 +3925,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -4179,25 +3974,22 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="H11" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>219</v>
-      </c>
       <c r="I11" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -4205,25 +3997,22 @@
         <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -4231,25 +4020,22 @@
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F13" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>224</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -4257,25 +4043,22 @@
         <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="G14" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>226</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -4283,7 +4066,7 @@
         <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
@@ -4292,622 +4075,550 @@
         <v>7897</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>309</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="D17" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G17" s="8" t="s">
-        <v>192</v>
-      </c>
       <c r="H17" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C18" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G18" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>310</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E22" s="7" t="s">
+      <c r="E24" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="H23" s="12" t="s">
+      <c r="F26" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C28" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I23" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="H25" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J25" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="26" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>196</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>315</v>
-      </c>
-      <c r="H26" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C27" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F27" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="28" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C28" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="D28" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E28" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H28" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I28" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="29" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C29" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F29" s="17">
         <v>453972</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H29" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="I29" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="30" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C30" s="7" t="s">
+      <c r="F30" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I30" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C31" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D31" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C32" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="I32" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C33" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I33" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C34" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I30" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J30" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C31" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I31" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J31" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="32" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C32" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>207</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="I32" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J32" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="33" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C33" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>208</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I33" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J33" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="34" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C34" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>213</v>
-      </c>
       <c r="E34" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F34" s="17">
         <v>98745632178</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H34" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C35" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="I34" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C35" s="7" t="s">
+      <c r="F35" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I35" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C36" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="D36" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E36" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F35" s="17" t="s">
+      <c r="F36" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I36" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="H37" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I37" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C38" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="H35" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I35" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J35" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C36" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I36" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J36" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="37" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C37" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="F37" s="15" t="s">
-        <v>152</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I37" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J37" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="38" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C38" s="7" t="s">
+      <c r="G38" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I38" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C39" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>203</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I38" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J38" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C39" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="D39" s="8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>23</v>
@@ -4916,172 +4627,151 @@
         <v>98745632178</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H39" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I39" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J39" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="40" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C40" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E40" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F40" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="G40" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="H40" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="G40" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>166</v>
-      </c>
       <c r="I40" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J40" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="41" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C41" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H41" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I41" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J41" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C42" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="I42" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C43" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="I42" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J42" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C43" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="D43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="21" t="s">
         <v>169</v>
       </c>
-      <c r="E43" s="21" t="s">
+      <c r="F43" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="17" t="s">
+      <c r="H43" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I43" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C44" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="E44" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I44" s="15" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C45" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="E45" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F45" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G45" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G43" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I43" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J43" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="44" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C44" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="E44" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I44" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J44" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="45" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C45" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G45" s="8" t="s">
+      <c r="H45" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H45" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="I45" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="J45" s="24" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -5101,8 +4791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068B4ADE-16A4-4202-9EDC-BAC19AAACDDB}">
   <dimension ref="C4:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5159,10 +4849,10 @@
     </row>
     <row r="8" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5196,10 +4886,10 @@
       <c r="H11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="27" t="s">
+      <c r="I11" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="27" t="s">
+      <c r="J11" s="26" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5208,25 +4898,22 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>216</v>
-      </c>
       <c r="F12" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="H12" s="25" t="s">
         <v>218</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="H12" s="26" t="s">
-        <v>219</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J12" s="28" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5234,25 +4921,22 @@
         <v>18</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J13" s="28" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5260,25 +4944,22 @@
         <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J14" s="28" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5286,25 +4967,22 @@
         <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J15" s="28" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5312,7 +4990,7 @@
         <v>25</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>23</v>
@@ -5321,154 +4999,136 @@
         <v>7897</v>
       </c>
       <c r="G16" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>228</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J16" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J17" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>229</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="H21" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="8" t="s">
         <v>236</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J18" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J19" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J20" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J21" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>23</v>
@@ -5477,94 +5137,82 @@
         <v>5000</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="I22" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J22" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C23" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E23" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="E25" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G25" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G23" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J23" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H24" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J24" s="28" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="H25" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H25" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="I25" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="J25" s="28" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -5580,8 +5228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4CC56B-8279-4992-82A2-EA16D1CC4E69}">
   <dimension ref="C4:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5638,10 +5286,10 @@
     </row>
     <row r="8" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
@@ -5687,25 +5335,22 @@
         <v>15</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F12" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>324</v>
+      <c r="H12" s="24" t="s">
+        <v>322</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>296</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5713,25 +5358,22 @@
         <v>18</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5739,25 +5381,22 @@
         <v>20</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G14" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>253</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -5765,103 +5404,91 @@
         <v>21</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F15" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="H15" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I15" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="D17" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H18" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="I18" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5877,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76425BEE-D139-43F4-862C-573070491388}">
   <dimension ref="C3:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5935,10 +5562,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -5984,25 +5611,22 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6010,25 +5634,22 @@
         <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6036,25 +5657,22 @@
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F13" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="G13" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="G13" s="23" t="s">
-        <v>253</v>
-      </c>
       <c r="H13" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6062,25 +5680,22 @@
         <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="G14" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="G14" s="8" t="s">
-        <v>256</v>
-      </c>
       <c r="H14" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6088,77 +5703,68 @@
         <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E15" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>172</v>
-      </c>
       <c r="I15" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D17" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="E17" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="I17" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6174,8 +5780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A55D84D-9094-4BC1-AFB8-0B4782768386}">
   <dimension ref="C3:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6231,10 +5837,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6280,25 +5886,22 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="G11" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>261</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6306,25 +5909,22 @@
         <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6332,25 +5932,22 @@
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6358,25 +5955,22 @@
         <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="63" x14ac:dyDescent="0.25">
@@ -6384,25 +5978,22 @@
         <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H15" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="I15" s="12" t="s">
         <v>303</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>305</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -6415,8 +6006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBFA54B7-97F0-44A0-AFDA-A97A57466264}">
   <dimension ref="C3:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6473,10 +6064,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6522,104 +6113,96 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="H11" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>270</v>
-      </c>
       <c r="I11" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C12" s="7" t="s">
         <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C13" s="7" t="s">
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="C14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
-      </c>
+      <c r="J14" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -6634,8 +6217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7174A76D-24F1-4B98-9E7E-653A48873B26}">
   <dimension ref="C3:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6692,10 +6275,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -6741,25 +6324,22 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E11" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="F11" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>249</v>
-      </c>
       <c r="H11" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6767,25 +6347,22 @@
         <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J12" s="24" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="63" x14ac:dyDescent="0.25">
@@ -6793,25 +6370,22 @@
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G13" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J13" s="24" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6819,25 +6393,22 @@
         <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J14" s="24" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -6845,259 +6416,229 @@
         <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="F15" s="15" t="s">
         <v>273</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="G15" s="15" t="s">
         <v>274</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="H15" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>276</v>
-      </c>
       <c r="I15" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J15" s="24" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="G16" s="15" t="s">
+      <c r="D17" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="H16" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J16" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E17" s="7" t="s">
+      <c r="F17" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="G17" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
+      <c r="F18" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E18" s="7" t="s">
+      <c r="D19" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C20" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="H18" s="12" t="s">
+      <c r="I20" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="I18" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J18" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>287</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="E21" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="H19" s="12" t="s">
-        <v>304</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J19" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="20" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>363</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="21" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C21" s="7" t="s">
+      <c r="F21" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="8" t="s">
-        <v>286</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="G21" s="15" t="s">
+      <c r="D22" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="H21" s="12" t="s">
-        <v>301</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J21" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="22" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="C24" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="E22" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F22" s="17" t="s">
+      <c r="E24" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G22" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J22" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="H23" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J23" s="24" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="24" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="C24" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="H24" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>182</v>
-      </c>
       <c r="I24" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="J24" s="24" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -7113,8 +6654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8A5A1D-3A3F-4AC4-B681-343ECE097D6B}">
   <dimension ref="C3:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7171,10 +6712,10 @@
     </row>
     <row r="7" spans="3:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>398</v>
+        <v>395</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>396</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
@@ -7220,25 +6761,22 @@
         <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="3:10" ht="110.25" x14ac:dyDescent="0.25">
@@ -7246,25 +6784,22 @@
         <v>18</v>
       </c>
       <c r="D12" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="G12" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="F12" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>330</v>
-      </c>
       <c r="I12" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>28</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="3:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7272,25 +6807,22 @@
         <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="H13" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I13" s="15" t="s">
         <v>334</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="3:10" ht="47.25" x14ac:dyDescent="0.25">
@@ -7298,25 +6830,22 @@
         <v>21</v>
       </c>
       <c r="D14" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F14" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="G14" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="H14" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I14" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I14" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="3:10" ht="78.75" x14ac:dyDescent="0.25">
@@ -7324,103 +6853,91 @@
         <v>25</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F15" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="G15" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="G15" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>346</v>
-      </c>
       <c r="I15" s="15" t="s">
-        <v>345</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>28</v>
+        <v>343</v>
       </c>
     </row>
     <row r="16" spans="3:10" ht="63" x14ac:dyDescent="0.25">
       <c r="C16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>347</v>
+      </c>
+      <c r="I16" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="C17" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F16" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="G16" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="H16" s="12" t="s">
+      <c r="E17" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="I16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="3:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="C17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="8" t="s">
+      <c r="F17" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="G17" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="H17" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="I17" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="C18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="G17" s="8" t="s">
+      <c r="F18" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="H18" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="H17" s="12" t="s">
-        <v>285</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="3:10" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>354</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>343</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>355</v>
-      </c>
       <c r="I18" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
